--- a/data/trans_dic/P15A-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P15A-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,43</t>
+          <t>1,5; 4,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 5,56</t>
+          <t>1,67; 5,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,92; 4,24</t>
+          <t>0,92; 4,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,13</t>
+          <t>0,4; 2,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 5,17</t>
+          <t>1,02; 5,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 5,93</t>
+          <t>1,15; 5,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 4,0</t>
+          <t>0,82; 3,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 4,18</t>
+          <t>1,72; 3,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,63; 3,85</t>
+          <t>1,6; 4,12</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,71</t>
+          <t>1,85; 4,68</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,38</t>
+          <t>1,18; 3,34</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,62</t>
+          <t>1,18; 2,62</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,01; 6,04</t>
+          <t>2,0; 6,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 4,83</t>
+          <t>1,46; 4,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,37</t>
+          <t>0,54; 3,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 5,44</t>
+          <t>1,25; 5,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,21</t>
+          <t>0,53; 3,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,62</t>
+          <t>0,29; 3,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 5,66</t>
+          <t>1,65; 5,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,39</t>
+          <t>0,62; 2,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,05</t>
+          <t>1,54; 4,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,4</t>
+          <t>1,2; 3,44</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,81</t>
+          <t>1,44; 3,83</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,7</t>
+          <t>1,25; 3,68</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,47; 7,25</t>
+          <t>3,56; 7,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,32</t>
+          <t>1,49; 4,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,48</t>
+          <t>0,96; 3,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,64</t>
+          <t>0,42; 3,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,15; 6,68</t>
+          <t>1,07; 6,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 5,53</t>
+          <t>0,76; 4,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 8,72</t>
+          <t>1,35; 8,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 5,66</t>
+          <t>1,58; 5,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,65</t>
+          <t>3,27; 6,58</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 3,86</t>
+          <t>1,65; 4,02</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,82</t>
+          <t>1,52; 3,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,44</t>
+          <t>0,81; 3,58</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,36</t>
+          <t>2,18; 4,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,37</t>
+          <t>2,1; 4,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 3,36</t>
+          <t>1,47; 3,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,2</t>
+          <t>1,52; 3,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,09</t>
+          <t>2,32; 5,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,47</t>
+          <t>1,29; 3,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,1</t>
+          <t>0,51; 2,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,01</t>
+          <t>0,99; 3,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 4,14</t>
+          <t>2,49; 4,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,07; 3,61</t>
+          <t>2,01; 3,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,42</t>
+          <t>1,21; 2,47</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,83</t>
+          <t>1,43; 2,86</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,86; 6,09</t>
+          <t>2,05; 6,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,39</t>
+          <t>1,35; 4,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,59; 5,78</t>
+          <t>2,53; 5,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,99; 6,3</t>
+          <t>1,93; 6,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,7; 5,95</t>
+          <t>2,58; 5,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,07</t>
+          <t>2,26; 4,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,95; 4,53</t>
+          <t>1,89; 4,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 5,02</t>
+          <t>2,37; 4,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,74; 5,25</t>
+          <t>2,7; 5,29</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,26</t>
+          <t>2,18; 4,21</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,46; 4,49</t>
+          <t>2,45; 4,48</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,64; 4,85</t>
+          <t>2,62; 4,94</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,25; 8,7</t>
+          <t>3,3; 8,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,07; 4,91</t>
+          <t>1,09; 4,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,78; 8,36</t>
+          <t>3,0; 8,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,43</t>
+          <t>0,0; 5,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,3</t>
+          <t>1,56; 3,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,43; 4,64</t>
+          <t>2,46; 4,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,08</t>
+          <t>1,82; 3,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,01</t>
+          <t>1,84; 4,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,07; 3,77</t>
+          <t>2,08; 3,72</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,3</t>
+          <t>2,35; 4,4</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,31; 4,42</t>
+          <t>2,3; 4,36</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,47</t>
+          <t>1,53; 3,48</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,11; 4,43</t>
+          <t>3,13; 4,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,33; 3,51</t>
+          <t>2,32; 3,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,13; 3,25</t>
+          <t>2,1; 3,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,49; 2,74</t>
+          <t>1,59; 2,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,24; 3,4</t>
+          <t>2,21; 3,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,22; 3,35</t>
+          <t>2,24; 3,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,91; 3,08</t>
+          <t>1,94; 3,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,07; 3,13</t>
+          <t>2,01; 3,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,8; 3,69</t>
+          <t>2,84; 3,73</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,42; 3,23</t>
+          <t>2,43; 3,24</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,17; 2,93</t>
+          <t>2,18; 2,96</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,92; 2,73</t>
+          <t>1,94; 2,75</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12598</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14112</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9250</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5137</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7761</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8357</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6742</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11697</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>20358</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>22470</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>15992</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>16834</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7108; 21589</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7313; 23858</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3937; 18626</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2002; 11449</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3124; 15919</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3608; 18064</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2862; 13604</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7681; 17402</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12474; 32167</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>13916; 35184</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9153; 25901</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>11201; 24970</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>13281</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>11872</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5910</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>11723</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5588</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3801</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>12653</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>18868</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>15672</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>18563</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>16805</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7355; 22903</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6103; 20114</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2031; 12035</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>5663; 23897</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1988; 12598</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>981; 11778</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6156; 21960</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2388; 9787</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>11343; 29920</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>9090; 26024</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>10816; 28707</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>10454; 30689</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>28285</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16737</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>9917</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12372</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4957</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5735</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6846</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5235</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>33242</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>22472</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>16763</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>17607</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>19301; 41758</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9363; 28254</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5013; 18306</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2791; 23820</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1792; 10775</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1983; 12973</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2236; 13733</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2630; 9412</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>23232; 46761</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>14642; 35717</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>10456; 26665</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6741; 29858</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>39023</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>35092</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>25883</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>23186</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>25010</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>16816</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>9226</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>19275</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>64032</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>51908</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>35109</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>42461</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>26935; 51898</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>24347; 48044</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>16868; 37850</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>15686; 34770</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>16584; 38111</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>9895; 26910</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4174; 17949</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>9644; 29793</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>48701; 82020</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>38697; 67705</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>23812; 48737</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>28736; 57575</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>12641</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>13748</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>23910</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>17519</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>22448</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>25737</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>22085</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>29145</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>35090</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>39485</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>45995</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>46663</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>7173; 21388</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6869; 22682</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>15705; 36114</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>9172; 30599</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>14676; 33869</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>17199; 37875</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>13978; 32026</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>19916; 41039</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>24857; 48655</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>27692; 53597</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>33306; 60928</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>34440; 64981</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>16192</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6754</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>14241</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2280</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>28042</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>37885</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>29958</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>20302</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>44234</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>44639</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>44199</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>22582</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>9848; 25869</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2910; 12687</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>8614; 25345</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 12874</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>19469; 40232</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>27246; 51423</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>19699; 41455</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>14006; 31499</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>32115; 57493</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>32386; 60592</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>31436; 59745</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>15331; 34854</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>122020</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>98315</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>89111</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>72217</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>93806</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>98331</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>87510</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>90736</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>215825</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>196646</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>176621</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>162953</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>102351; 145658</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>79385; 118978</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>71052; 108358</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>53568; 96325</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>74598; 112575</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>79383; 120371</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>68556; 108213</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>71881; 109982</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>188744; 248000</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>169743; 226057</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>150940; 204937</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>134999; 191406</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P15A-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P15A-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
